--- a/Result/result_HOMO_USD_Train_80.xlsx
+++ b/Result/result_HOMO_USD_Train_80.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="388">
   <si>
     <t>Predictor_Order</t>
   </si>
@@ -89,7 +89,1093 @@
     <t>19</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
     <t>logistic</t>
+  </si>
+  <si>
+    <t>tanh</t>
   </si>
 </sst>
 </file>
@@ -178,7 +1264,7 @@
         <v>0.04315281750504053</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -201,7 +1287,7 @@
         <v>0.038859918647009085</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -224,7 +1310,7 @@
         <v>0.03752139094090023</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G4" t="n">
         <v>0.1</v>
@@ -247,7 +1333,7 @@
         <v>0.04116616811663972</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
@@ -270,7 +1356,7 @@
         <v>0.03523943792975572</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -293,7 +1379,7 @@
         <v>0.026258835702531128</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
@@ -316,7 +1402,7 @@
         <v>0.03515948104632005</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -339,7 +1425,7 @@
         <v>0.024204940969168445</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -362,7 +1448,7 @@
         <v>0.027787727792777616</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
@@ -385,7 +1471,7 @@
         <v>0.025022236003569245</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G11" t="n">
         <v>0.1</v>
@@ -408,7 +1494,7 @@
         <v>0.025944430211833285</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -431,7 +1517,7 @@
         <v>0.024636264898542346</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G13" t="n">
         <v>0.1</v>
@@ -454,7 +1540,7 @@
         <v>0.02861785745371795</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -477,7 +1563,7 @@
         <v>0.026503317846498894</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G15" t="n">
         <v>0.1</v>
@@ -500,7 +1586,7 @@
         <v>0.023696355258340216</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
@@ -523,7 +1609,7 @@
         <v>0.024463755655539807</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G17" t="n">
         <v>0.1</v>
@@ -546,7 +1632,7 @@
         <v>0.02188296496564661</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G18" t="n">
         <v>0.1</v>
@@ -569,7 +1655,7 @@
         <v>0.023065145910735673</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G19" t="n">
         <v>0.1</v>
@@ -592,10 +1678,8313 @@
         <v>0.023598465407343703</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G20" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F21" t="s">
+        <v>387</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F26" t="s">
+        <v>387</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F27" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F30" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F31" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F35" t="s">
+        <v>387</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F36" t="s">
+        <v>387</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F37" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F38" t="s">
+        <v>387</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F39" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F41" t="s">
+        <v>386</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F51" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F54" t="s">
+        <v>386</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F55" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F56" t="s">
+        <v>386</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F58" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F60" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F62" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F63" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F64" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F66" t="s">
+        <v>387</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F67" t="s">
+        <v>387</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F68" t="s">
+        <v>387</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F70" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F71" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F72" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F73" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F74" t="s">
+        <v>387</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F75" t="s">
+        <v>387</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F76" t="s">
+        <v>387</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F77" t="s">
+        <v>387</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F78" t="s">
+        <v>386</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F79" t="s">
+        <v>386</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F80" t="s">
+        <v>386</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F81" t="s">
+        <v>386</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F82" t="s">
+        <v>386</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F83" t="s">
+        <v>386</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F84" t="s">
+        <v>386</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F85" t="s">
+        <v>386</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F86" t="s">
+        <v>386</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F87" t="s">
+        <v>386</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F88" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F89" t="s">
+        <v>386</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F90" t="s">
+        <v>386</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F91" t="s">
+        <v>386</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F92" t="s">
+        <v>386</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F93" t="s">
+        <v>386</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F94" t="s">
+        <v>386</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F95" t="s">
+        <v>386</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F96" t="s">
+        <v>386</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F97" t="s">
+        <v>387</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F98" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F99" t="s">
+        <v>387</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F100" t="s">
+        <v>387</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F101" t="s">
+        <v>387</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F102" t="s">
+        <v>387</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F103" t="s">
+        <v>387</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F104" t="s">
+        <v>387</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F105" t="s">
+        <v>387</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F106" t="s">
+        <v>387</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F107" t="s">
+        <v>387</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F108" t="s">
+        <v>387</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F109" t="s">
+        <v>387</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F110" t="s">
+        <v>387</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F111" t="s">
+        <v>387</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F112" t="s">
+        <v>387</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F113" t="s">
+        <v>387</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F114" t="s">
+        <v>387</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F115" t="s">
+        <v>387</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F116" t="s">
+        <v>386</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F117" t="s">
+        <v>386</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F118" t="s">
+        <v>386</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F119" t="s">
+        <v>386</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F120" t="s">
+        <v>386</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F121" t="s">
+        <v>386</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F122" t="s">
+        <v>386</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F123" t="s">
+        <v>386</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F124" t="s">
+        <v>386</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F125" t="s">
+        <v>386</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F126" t="s">
+        <v>386</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F127" t="s">
+        <v>386</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F128" t="s">
+        <v>386</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F129" t="s">
+        <v>386</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F130" t="s">
+        <v>386</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F131" t="s">
+        <v>386</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F132" t="s">
+        <v>386</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F133" t="s">
+        <v>386</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F134" t="s">
+        <v>386</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F135" t="s">
+        <v>387</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F136" t="s">
+        <v>387</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F137" t="s">
+        <v>387</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F138" t="s">
+        <v>387</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F139" t="s">
+        <v>387</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F140" t="s">
+        <v>387</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F141" t="s">
+        <v>387</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F142" t="s">
+        <v>387</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F143" t="s">
+        <v>387</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F144" t="s">
+        <v>387</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F145" t="s">
+        <v>387</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F146" t="s">
+        <v>387</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F147" t="s">
+        <v>387</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F148" t="s">
+        <v>387</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F149" t="s">
+        <v>387</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F150" t="s">
+        <v>387</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F151" t="s">
+        <v>387</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F152" t="s">
+        <v>387</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F153" t="s">
+        <v>387</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F154" t="s">
+        <v>386</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F155" t="s">
+        <v>386</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F156" t="s">
+        <v>386</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F157" t="s">
+        <v>386</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F158" t="s">
+        <v>386</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F159" t="s">
+        <v>386</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F160" t="s">
+        <v>386</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F161" t="s">
+        <v>386</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F162" t="s">
+        <v>386</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F163" t="s">
+        <v>386</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F164" t="s">
+        <v>386</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F165" t="s">
+        <v>386</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F166" t="s">
+        <v>386</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F167" t="s">
+        <v>386</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F168" t="s">
+        <v>386</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F169" t="s">
+        <v>386</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F170" t="s">
+        <v>386</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F171" t="s">
+        <v>386</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F172" t="s">
+        <v>386</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F173" t="s">
+        <v>387</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F174" t="s">
+        <v>387</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F175" t="s">
+        <v>387</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F176" t="s">
+        <v>387</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F177" t="s">
+        <v>387</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F178" t="s">
+        <v>387</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F179" t="s">
+        <v>387</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F180" t="s">
+        <v>387</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F181" t="s">
+        <v>387</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F182" t="s">
+        <v>387</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F183" t="s">
+        <v>387</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F184" t="s">
+        <v>387</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F185" t="s">
+        <v>387</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F186" t="s">
+        <v>387</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F187" t="s">
+        <v>387</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F188" t="s">
+        <v>387</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F189" t="s">
+        <v>387</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F190" t="s">
+        <v>387</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F191" t="s">
+        <v>387</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F192" t="s">
+        <v>386</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F193" t="s">
+        <v>386</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F194" t="s">
+        <v>386</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F195" t="s">
+        <v>386</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F196" t="s">
+        <v>386</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F197" t="s">
+        <v>386</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F198" t="s">
+        <v>386</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F199" t="s">
+        <v>386</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F200" t="s">
+        <v>386</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F201" t="s">
+        <v>386</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F202" t="s">
+        <v>386</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F203" t="s">
+        <v>386</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F204" t="s">
+        <v>386</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F205" t="s">
+        <v>386</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F206" t="s">
+        <v>386</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F207" t="s">
+        <v>386</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F208" t="s">
+        <v>386</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F209" t="s">
+        <v>386</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F210" t="s">
+        <v>386</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F211" t="s">
+        <v>387</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F212" t="s">
+        <v>387</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F213" t="s">
+        <v>387</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F214" t="s">
+        <v>387</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F215" t="s">
+        <v>387</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F216" t="s">
+        <v>387</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F217" t="s">
+        <v>387</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F218" t="s">
+        <v>387</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F219" t="s">
+        <v>387</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F220" t="s">
+        <v>387</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F221" t="s">
+        <v>387</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F222" t="s">
+        <v>387</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F223" t="s">
+        <v>387</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F224" t="s">
+        <v>387</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F225" t="s">
+        <v>387</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F226" t="s">
+        <v>387</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F227" t="s">
+        <v>387</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F228" t="s">
+        <v>387</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F229" t="s">
+        <v>387</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F230" t="s">
+        <v>386</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F231" t="s">
+        <v>386</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F232" t="s">
+        <v>386</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F233" t="s">
+        <v>386</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F234" t="s">
+        <v>386</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F235" t="s">
+        <v>386</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F236" t="s">
+        <v>386</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F237" t="s">
+        <v>386</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F238" t="s">
+        <v>386</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F239" t="s">
+        <v>386</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F240" t="s">
+        <v>386</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F241" t="s">
+        <v>386</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F242" t="s">
+        <v>386</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F243" t="s">
+        <v>386</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F244" t="s">
+        <v>386</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F245" t="s">
+        <v>386</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>250</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F246" t="s">
+        <v>386</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>251</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F247" t="s">
+        <v>386</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>252</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F248" t="s">
+        <v>386</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F249" t="s">
+        <v>387</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F250" t="s">
+        <v>387</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F251" t="s">
+        <v>387</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F252" t="s">
+        <v>387</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F253" t="s">
+        <v>387</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F254" t="s">
+        <v>387</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F255" t="s">
+        <v>387</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F256" t="s">
+        <v>387</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F257" t="s">
+        <v>387</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F258" t="s">
+        <v>387</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F259" t="s">
+        <v>387</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F260" t="s">
+        <v>387</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F261" t="s">
+        <v>387</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F262" t="s">
+        <v>387</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F263" t="s">
+        <v>387</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>268</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F264" t="s">
+        <v>387</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F265" t="s">
+        <v>387</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F266" t="s">
+        <v>387</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F267" t="s">
+        <v>387</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F268" t="s">
+        <v>386</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F269" t="s">
+        <v>386</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>274</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F270" t="s">
+        <v>386</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>275</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F271" t="s">
+        <v>386</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F272" t="s">
+        <v>386</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>277</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F273" t="s">
+        <v>386</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>278</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F274" t="s">
+        <v>386</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F275" t="s">
+        <v>386</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>280</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F276" t="s">
+        <v>386</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F277" t="s">
+        <v>386</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F278" t="s">
+        <v>386</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F279" t="s">
+        <v>386</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F280" t="s">
+        <v>386</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>285</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F281" t="s">
+        <v>386</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>286</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F282" t="s">
+        <v>386</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>287</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F283" t="s">
+        <v>386</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>288</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F284" t="s">
+        <v>386</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>289</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F285" t="s">
+        <v>386</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F286" t="s">
+        <v>386</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F287" t="s">
+        <v>387</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>292</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F288" t="s">
+        <v>387</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>293</v>
+      </c>
+      <c r="B289" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F289" t="s">
+        <v>387</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>294</v>
+      </c>
+      <c r="B290" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F290" t="s">
+        <v>387</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>295</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F291" t="s">
+        <v>387</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>296</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F292" t="s">
+        <v>387</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>297</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F293" t="s">
+        <v>387</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>298</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F294" t="s">
+        <v>387</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>299</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F295" t="s">
+        <v>387</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>300</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F296" t="s">
+        <v>387</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>301</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F297" t="s">
+        <v>387</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>302</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F298" t="s">
+        <v>387</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>303</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F299" t="s">
+        <v>387</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>304</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F300" t="s">
+        <v>387</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>305</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F301" t="s">
+        <v>387</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>306</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F302" t="s">
+        <v>387</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>307</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F303" t="s">
+        <v>387</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>308</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F304" t="s">
+        <v>387</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>309</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F305" t="s">
+        <v>387</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>310</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F306" t="s">
+        <v>386</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>311</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F307" t="s">
+        <v>386</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>312</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F308" t="s">
+        <v>386</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>313</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F309" t="s">
+        <v>386</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F310" t="s">
+        <v>386</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>315</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F311" t="s">
+        <v>386</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>316</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F312" t="s">
+        <v>386</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F313" t="s">
+        <v>386</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>318</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F314" t="s">
+        <v>386</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>319</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F315" t="s">
+        <v>386</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F316" t="s">
+        <v>386</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>321</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F317" t="s">
+        <v>386</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>322</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F318" t="s">
+        <v>386</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F319" t="s">
+        <v>386</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>324</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F320" t="s">
+        <v>386</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>325</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F321" t="s">
+        <v>386</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>326</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F322" t="s">
+        <v>386</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>327</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F323" t="s">
+        <v>386</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F324" t="s">
+        <v>386</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>329</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F325" t="s">
+        <v>387</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>330</v>
+      </c>
+      <c r="B326" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F326" t="s">
+        <v>387</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>331</v>
+      </c>
+      <c r="B327" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F327" t="s">
+        <v>387</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>332</v>
+      </c>
+      <c r="B328" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F328" t="s">
+        <v>387</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>333</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F329" t="s">
+        <v>387</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>334</v>
+      </c>
+      <c r="B330" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F330" t="s">
+        <v>387</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>335</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F331" t="s">
+        <v>387</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>336</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F332" t="s">
+        <v>387</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>337</v>
+      </c>
+      <c r="B333" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F333" t="s">
+        <v>387</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>338</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F334" t="s">
+        <v>387</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>339</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F335" t="s">
+        <v>387</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>340</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F336" t="s">
+        <v>387</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>341</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F337" t="s">
+        <v>387</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F338" t="s">
+        <v>387</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F339" t="s">
+        <v>387</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F340" t="s">
+        <v>387</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F341" t="s">
+        <v>387</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F342" t="s">
+        <v>387</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>347</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F343" t="s">
+        <v>387</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>348</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.07987475027196381</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.04315281750504053</v>
+      </c>
+      <c r="F344" t="s">
+        <v>386</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.06981213564248873</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.038859918647009085</v>
+      </c>
+      <c r="F345" t="s">
+        <v>386</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>350</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.06672151821515972</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.03752139094090023</v>
+      </c>
+      <c r="F346" t="s">
+        <v>386</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.0771489061607963</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.04116616811663972</v>
+      </c>
+      <c r="F347" t="s">
+        <v>386</v>
+      </c>
+      <c r="G347" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>352</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.06127564883238528</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.03523943792975572</v>
+      </c>
+      <c r="F348" t="s">
+        <v>386</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>353</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.041005595986327255</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.026258835702531128</v>
+      </c>
+      <c r="F349" t="s">
+        <v>386</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>354</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.061091335126050694</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.03515948104632005</v>
+      </c>
+      <c r="F350" t="s">
+        <v>386</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>355</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.03627538294337415</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.024204940969168445</v>
+      </c>
+      <c r="F351" t="s">
+        <v>386</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>356</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.04464250225829196</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.027787727792777616</v>
+      </c>
+      <c r="F352" t="s">
+        <v>386</v>
+      </c>
+      <c r="G352" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>357</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.03771778615670144</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.025022236003569245</v>
+      </c>
+      <c r="F353" t="s">
+        <v>386</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>358</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.0397745324903398</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.025944430211833285</v>
+      </c>
+      <c r="F354" t="s">
+        <v>386</v>
+      </c>
+      <c r="G354" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>359</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.037265068236248595</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.024636264898542346</v>
+      </c>
+      <c r="F355" t="s">
+        <v>386</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>360</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.046342534045935496</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.02861785745371795</v>
+      </c>
+      <c r="F356" t="s">
+        <v>386</v>
+      </c>
+      <c r="G356" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>361</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.041092743629738526</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.026503317846498894</v>
+      </c>
+      <c r="F357" t="s">
+        <v>386</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>362</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.035239133566193875</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.023696355258340216</v>
+      </c>
+      <c r="F358" t="s">
+        <v>386</v>
+      </c>
+      <c r="G358" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>363</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.03674373188007119</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.024463755655539807</v>
+      </c>
+      <c r="F359" t="s">
+        <v>386</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>364</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.03171897028943439</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.02188296496564661</v>
+      </c>
+      <c r="F360" t="s">
+        <v>386</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>365</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.03404710265166635</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.023065145910735673</v>
+      </c>
+      <c r="F361" t="s">
+        <v>386</v>
+      </c>
+      <c r="G361" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>366</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.03487609020234</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.023598465407343703</v>
+      </c>
+      <c r="F362" t="s">
+        <v>386</v>
+      </c>
+      <c r="G362" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>367</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.03913181106301901</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.02537424278419233</v>
+      </c>
+      <c r="F363" t="s">
+        <v>387</v>
+      </c>
+      <c r="G363" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>368</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.034800632402598876</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.023376815964363827</v>
+      </c>
+      <c r="F364" t="s">
+        <v>387</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>369</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.028936020530839587</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.02032824714081386</v>
+      </c>
+      <c r="F365" t="s">
+        <v>387</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>370</v>
+      </c>
+      <c r="B366" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.039460167828652984</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.02517504299277758</v>
+      </c>
+      <c r="F366" t="s">
+        <v>387</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>371</v>
+      </c>
+      <c r="B367" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.03552884166952053</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.023713877229579468</v>
+      </c>
+      <c r="F367" t="s">
+        <v>387</v>
+      </c>
+      <c r="G367" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>372</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.02988557844602733</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.020768538944967697</v>
+      </c>
+      <c r="F368" t="s">
+        <v>387</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>373</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.027215730122784602</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.019241272184666935</v>
+      </c>
+      <c r="F369" t="s">
+        <v>387</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>374</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.040632787099797944</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.02596156680396271</v>
+      </c>
+      <c r="F370" t="s">
+        <v>387</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>375</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.028434521734153236</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.02010027304989043</v>
+      </c>
+      <c r="F371" t="s">
+        <v>387</v>
+      </c>
+      <c r="G371" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>376</v>
+      </c>
+      <c r="B372" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.02632817254805353</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.018690488323795506</v>
+      </c>
+      <c r="F372" t="s">
+        <v>387</v>
+      </c>
+      <c r="G372" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>377</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.024799277218720304</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.018000155721307743</v>
+      </c>
+      <c r="F373" t="s">
+        <v>387</v>
+      </c>
+      <c r="G373" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>378</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.027483799311486805</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.019440074711574856</v>
+      </c>
+      <c r="F374" t="s">
+        <v>387</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>379</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.03660656584206199</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.024223291928601343</v>
+      </c>
+      <c r="F375" t="s">
+        <v>387</v>
+      </c>
+      <c r="G375" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>380</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.032727050077175385</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.022333481090639123</v>
+      </c>
+      <c r="F376" t="s">
+        <v>387</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>381</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.025490202858861666</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.018031741877738688</v>
+      </c>
+      <c r="F377" t="s">
+        <v>387</v>
+      </c>
+      <c r="G377" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>382</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.028187026936102665</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.019918664725491954</v>
+      </c>
+      <c r="F378" t="s">
+        <v>387</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>383</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.026167925473170543</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.018841990494176425</v>
+      </c>
+      <c r="F379" t="s">
+        <v>387</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>384</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.028651639695478313</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.02021935407487006</v>
+      </c>
+      <c r="F380" t="s">
+        <v>387</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>385</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.025828521617969443</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.018378646982641206</v>
+      </c>
+      <c r="F381" t="s">
+        <v>387</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
